--- a/data/trans_orig/IP07C13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0356FC-94C4-455E-BD4D-43781EED63C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C486C332-963F-4765-9C24-9D9982776C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13EF7B46-E284-4A1A-A30B-31E9ECED271E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87A64F9A-E916-44A4-B81D-F85CEF2623CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="442">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>56,72%</t>
   </si>
   <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>52,13%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>40,12%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
   </si>
   <si>
     <t>41,31%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -139,1264 +139,1231 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,5%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 45,58%)</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93457AD-3DDB-4882-9F8C-DE73D0651C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B989AB1B-DB32-4404-8F68-9F29552DE38C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2091,7 +2058,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2103,10 +2070,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2115,19 +2082,19 @@
         <v>667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2139,10 +2106,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2154,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2169,10 +2136,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2360,13 @@
         <v>578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2408,13 +2375,13 @@
         <v>1094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2423,19 +2390,19 @@
         <v>1672</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -2444,13 +2411,13 @@
         <v>1347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2459,13 +2426,13 @@
         <v>687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2474,13 +2441,13 @@
         <v>2033</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,7 +2503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2548,13 +2515,13 @@
         <v>26284</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -2563,13 +2530,13 @@
         <v>29638</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -2578,13 +2545,13 @@
         <v>55923</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2566,13 @@
         <v>17861</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2614,13 +2581,13 @@
         <v>18789</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -2629,13 +2596,13 @@
         <v>36650</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2617,13 @@
         <v>3423</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2665,13 +2632,13 @@
         <v>2973</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2680,13 +2647,13 @@
         <v>6396</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2671,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2716,10 +2683,10 @@
         <v>2121</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>121</v>
@@ -2743,7 +2710,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2767,13 +2734,13 @@
         <v>726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2782,13 +2749,13 @@
         <v>1384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2823,13 @@
         <v>176103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -2871,13 +2838,13 @@
         <v>147819</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -2886,13 +2853,13 @@
         <v>323923</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2874,13 @@
         <v>112950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>176</v>
@@ -2922,13 +2889,13 @@
         <v>118428</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>347</v>
@@ -2937,13 +2904,13 @@
         <v>231378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2925,13 @@
         <v>14489</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2973,13 +2940,13 @@
         <v>19772</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -2988,13 +2955,13 @@
         <v>34261</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +2976,13 @@
         <v>1245</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3024,13 +2991,13 @@
         <v>3215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -3039,19 +3006,19 @@
         <v>4460</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -3060,13 +3027,13 @@
         <v>2006</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3075,13 +3042,13 @@
         <v>1412</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3090,13 +3057,13 @@
         <v>3418</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3119,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F139BB9B-2D7A-40BC-ACF6-6ADCE2AB2413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA0957D-791C-4C84-BFE9-A29E61DE5E76}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3155,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3295,13 +3262,13 @@
         <v>25084</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -3310,13 +3277,13 @@
         <v>32284</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -3325,10 +3292,10 @@
         <v>57368</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>179</v>
@@ -3361,13 +3328,13 @@
         <v>14214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3376,13 +3343,13 @@
         <v>33238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3364,13 @@
         <v>1053</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3412,13 +3379,13 @@
         <v>2432</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3427,10 +3394,10 @@
         <v>3486</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>195</v>
@@ -3451,10 +3418,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3466,10 +3433,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3481,16 +3448,16 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3502,10 +3469,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3514,13 +3481,13 @@
         <v>2039</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3529,13 +3496,13 @@
         <v>2039</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3570,13 @@
         <v>144204</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -3618,13 +3585,13 @@
         <v>108646</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>365</v>
@@ -3633,13 +3600,13 @@
         <v>252851</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3621,13 @@
         <v>65877</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
@@ -3669,13 +3636,13 @@
         <v>71888</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>200</v>
@@ -3684,13 +3651,13 @@
         <v>137765</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3672,13 @@
         <v>9490</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -3720,13 +3687,13 @@
         <v>16266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -3735,13 +3702,13 @@
         <v>25756</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3723,13 @@
         <v>2532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3771,13 +3738,13 @@
         <v>1306</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3786,19 +3753,19 @@
         <v>3838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -3807,13 +3774,13 @@
         <v>2037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3822,13 +3789,13 @@
         <v>1641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3837,13 +3804,13 @@
         <v>3678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3866,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3911,13 +3878,13 @@
         <v>38823</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3926,13 +3893,13 @@
         <v>39844</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -3941,13 +3908,13 @@
         <v>78667</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3929,13 @@
         <v>13062</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3977,13 +3944,13 @@
         <v>16750</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -3992,13 +3959,13 @@
         <v>29812</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +3980,13 @@
         <v>2855</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4028,13 +3995,13 @@
         <v>2823</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4043,13 +4010,13 @@
         <v>5678</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4031,13 @@
         <v>607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4079,13 +4046,13 @@
         <v>669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4094,19 +4061,19 @@
         <v>1276</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -4115,13 +4082,13 @@
         <v>806</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4130,13 +4097,13 @@
         <v>715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4145,13 +4112,13 @@
         <v>1521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4186,13 @@
         <v>208111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>256</v>
@@ -4234,13 +4201,13 @@
         <v>180775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -4249,13 +4216,13 @@
         <v>388885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4237,13 @@
         <v>97963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -4285,13 +4252,13 @@
         <v>102852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>289</v>
@@ -4300,13 +4267,13 @@
         <v>200815</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4288,13 @@
         <v>13398</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -4336,13 +4303,13 @@
         <v>21521</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -4351,13 +4318,13 @@
         <v>34919</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4339,13 @@
         <v>3139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4387,13 +4354,13 @@
         <v>1975</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4402,19 +4369,19 @@
         <v>5114</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -4423,13 +4390,13 @@
         <v>2842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4438,13 +4405,13 @@
         <v>4395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -4453,13 +4420,13 @@
         <v>7237</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4482,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71D3B24-DD7A-40EC-835A-0B2BFAF0B5A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E312024A-A7A3-4E25-908A-DC10BA921A81}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4658,13 +4625,13 @@
         <v>17737</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4673,13 +4640,13 @@
         <v>13527</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -4688,13 +4655,13 @@
         <v>31265</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4676,13 @@
         <v>11889</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -4724,13 +4691,13 @@
         <v>14103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4739,13 +4706,13 @@
         <v>25992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4727,13 @@
         <v>6285</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4775,13 +4742,13 @@
         <v>1382</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -4790,13 +4757,13 @@
         <v>7667</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,10 +4781,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4826,13 +4793,13 @@
         <v>662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4841,19 +4808,19 @@
         <v>662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -4862,13 +4829,13 @@
         <v>727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4877,13 +4844,13 @@
         <v>931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4892,13 +4859,13 @@
         <v>1658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4933,13 @@
         <v>138983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>195</v>
@@ -4981,13 +4948,13 @@
         <v>136849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>384</v>
@@ -4996,13 +4963,13 @@
         <v>275832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +4984,13 @@
         <v>80029</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -5032,13 +4999,13 @@
         <v>87848</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -5047,13 +5014,13 @@
         <v>167878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5035,13 @@
         <v>14190</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -5083,13 +5050,13 @@
         <v>14785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -5098,13 +5065,13 @@
         <v>28975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,10 +5089,10 @@
         <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5134,13 +5101,13 @@
         <v>2003</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5149,19 +5116,19 @@
         <v>5237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5173,10 +5140,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5185,13 +5152,13 @@
         <v>1808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5200,13 +5167,13 @@
         <v>1808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,7 +5229,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5274,13 +5241,13 @@
         <v>51509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -5289,13 +5256,13 @@
         <v>42897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -5304,13 +5271,13 @@
         <v>94406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5292,13 @@
         <v>22740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -5340,13 +5307,13 @@
         <v>20649</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -5355,13 +5322,13 @@
         <v>43389</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5343,13 @@
         <v>636</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5391,13 +5358,13 @@
         <v>5523</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>404</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5406,13 +5373,13 @@
         <v>6158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,10 +5397,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5442,13 +5409,13 @@
         <v>875</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5457,19 +5424,19 @@
         <v>875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5481,10 +5448,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5493,13 +5460,13 @@
         <v>583</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5508,13 +5475,13 @@
         <v>583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,28 +5549,28 @@
         <v>208229</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>274</v>
       </c>
       <c r="I22" s="7">
-        <v>193274</v>
+        <v>193273</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>558</v>
@@ -5612,13 +5579,13 @@
         <v>401503</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,28 +5600,28 @@
         <v>114659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>176</v>
       </c>
       <c r="I23" s="7">
-        <v>122600</v>
+        <v>122599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -5663,13 +5630,13 @@
         <v>237258</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,10 +5654,10 @@
         <v>75</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -5699,13 +5666,13 @@
         <v>21689</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -5714,13 +5681,13 @@
         <v>42801</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>271</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5702,13 @@
         <v>3234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5750,13 +5717,13 @@
         <v>3540</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5765,19 +5732,19 @@
         <v>6774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -5786,13 +5753,13 @@
         <v>727</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5801,13 +5768,13 @@
         <v>3322</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5816,13 +5783,13 @@
         <v>4048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,7 +5816,7 @@
         <v>491</v>
       </c>
       <c r="I27" s="7">
-        <v>344425</v>
+        <v>344424</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>49</v>
@@ -5878,7 +5845,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C486C332-963F-4765-9C24-9D9982776C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{269501AB-042E-4AEE-AE90-C8B8A8FE8A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87A64F9A-E916-44A4-B81D-F85CEF2623CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{54730AE3-2B5A-49AD-8C3E-4901AFF2B1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="452">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1297 +73,1327 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
     <t>40,12%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>41,31%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 45,58%)</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 45,58%)</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>1,23%</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B989AB1B-DB32-4404-8F68-9F29552DE38C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA992FA6-D6E5-44C6-BFB5-112A2B534AF4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>24150</v>
+        <v>23985</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1908,10 +1938,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>23985</v>
+        <v>24150</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1944,10 +1974,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>17086</v>
+        <v>19511</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1959,10 +1989,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>19511</v>
+        <v>17086</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1995,10 +2025,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>679</v>
+        <v>2518</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2010,10 +2040,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2518</v>
+        <v>679</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2046,34 +2076,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>667</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2082,19 +2112,19 @@
         <v>667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2103,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2118,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2133,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,25 +2178,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>42582</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>49</v>
@@ -2201,10 +2231,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D10" s="7">
-        <v>125669</v>
+        <v>94196</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2216,10 +2246,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="I10" s="7">
-        <v>94196</v>
+        <v>125669</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2255,7 +2285,7 @@
         <v>119</v>
       </c>
       <c r="D11" s="7">
-        <v>78004</v>
+        <v>80128</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2270,7 +2300,7 @@
         <v>119</v>
       </c>
       <c r="I11" s="7">
-        <v>80128</v>
+        <v>78004</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2303,10 +2333,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>10387</v>
+        <v>14281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -2318,10 +2348,10 @@
         <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>14281</v>
+        <v>10387</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>72</v>
@@ -2345,7 +2375,7 @@
         <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,34 +2384,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1094</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>578</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1094</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2390,49 +2420,49 @@
         <v>1672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>687</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1347</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>687</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2441,13 +2471,13 @@
         <v>2033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,25 +2486,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7">
         <v>326</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215985</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>49</v>
@@ -2503,40 +2533,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>29638</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="7">
         <v>39</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>26284</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>29638</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -2545,13 +2575,13 @@
         <v>55923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,34 +2590,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18789</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="7">
         <v>27</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>17861</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18789</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -2596,13 +2626,13 @@
         <v>36650</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,34 +2641,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2973</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3423</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2973</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2647,13 +2677,13 @@
         <v>6396</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,34 +2692,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2121</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2121</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2698,31 +2728,31 @@
         <v>2121</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>659</v>
+        <v>726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>126</v>
@@ -2731,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>726</v>
+        <v>659</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>128</v>
@@ -2749,13 +2779,13 @@
         <v>1384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,25 +2794,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="7">
         <v>72</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>48227</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>49</v>
@@ -2817,34 +2847,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>219</v>
+      </c>
+      <c r="D22" s="7">
+        <v>147819</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="7">
         <v>264</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>176103</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="7">
-        <v>219</v>
-      </c>
-      <c r="I22" s="7">
-        <v>147819</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -2853,13 +2883,13 @@
         <v>323923</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,34 +2898,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>176</v>
+      </c>
+      <c r="D23" s="7">
+        <v>118428</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="7">
         <v>171</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>112950</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="7">
-        <v>176</v>
-      </c>
-      <c r="I23" s="7">
-        <v>118428</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>347</v>
@@ -2904,13 +2934,13 @@
         <v>231378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,34 +2949,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19772</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="7">
         <v>22</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>14489</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="7">
-        <v>30</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19772</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -2955,13 +2985,13 @@
         <v>34261</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,34 +3000,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3215</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1245</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3215</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -3006,49 +3036,49 @@
         <v>4460</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1412</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2006</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1412</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3057,13 +3087,13 @@
         <v>3418</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,25 +3102,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="7">
         <v>462</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>306794</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>49</v>
@@ -3119,7 +3149,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA0957D-791C-4C84-BFE9-A29E61DE5E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538DD5EF-9B49-4C2A-B1D5-20E59B31734A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3155,7 +3185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3256,34 +3286,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32284</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="7">
         <v>36</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>25084</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="7">
-        <v>46</v>
-      </c>
-      <c r="I4" s="7">
-        <v>32284</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -3292,10 +3322,10 @@
         <v>57368</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>179</v>
@@ -3307,34 +3337,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14214</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="7">
         <v>26</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>19024</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14214</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3343,13 +3373,13 @@
         <v>33238</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,34 +3388,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>1053</v>
+        <v>2432</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2432</v>
+        <v>1053</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3394,10 +3424,10 @@
         <v>3486</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>195</v>
@@ -3415,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3430,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3445,49 +3475,49 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2039</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2039</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3496,13 +3526,13 @@
         <v>2039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,25 +3541,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50969</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>49</v>
@@ -3564,34 +3594,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>154</v>
+      </c>
+      <c r="D10" s="7">
+        <v>108646</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="7">
         <v>211</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>144204</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>108646</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>365</v>
@@ -3600,13 +3630,13 @@
         <v>252851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,34 +3645,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>105</v>
+      </c>
+      <c r="D11" s="7">
+        <v>71888</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="7">
         <v>95</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>65877</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="7">
-        <v>105</v>
-      </c>
-      <c r="I11" s="7">
-        <v>71888</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>200</v>
@@ -3651,13 +3681,13 @@
         <v>137765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,34 +3696,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16266</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>9490</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16266</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -3702,13 +3732,13 @@
         <v>25756</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,34 +3747,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2532</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1306</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3753,49 +3783,49 @@
         <v>3838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1641</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2037</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1641</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3804,13 +3834,13 @@
         <v>3678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,25 +3849,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224140</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>49</v>
@@ -3866,7 +3896,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3875,31 +3905,31 @@
         <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>38823</v>
+        <v>39844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>39844</v>
+        <v>38823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -3908,13 +3938,13 @@
         <v>78667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,34 +3953,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16750</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" s="7">
         <v>20</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>13062</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16750</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -3959,13 +3989,13 @@
         <v>29812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,31 +4007,31 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2855</v>
+        <v>2823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2823</v>
+        <v>2855</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4010,13 +4040,13 @@
         <v>5678</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,31 +4058,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>669</v>
+        <v>607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4061,49 +4091,49 @@
         <v>1276</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>806</v>
+        <v>715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4112,13 +4142,13 @@
         <v>1521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,25 +4157,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>49</v>
@@ -4180,34 +4210,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>256</v>
+      </c>
+      <c r="D22" s="7">
+        <v>180775</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="7">
         <v>303</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>208111</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H22" s="7">
-        <v>256</v>
-      </c>
-      <c r="I22" s="7">
-        <v>180775</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -4216,13 +4246,13 @@
         <v>388885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,34 +4261,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>148</v>
+      </c>
+      <c r="D23" s="7">
+        <v>102852</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="7">
         <v>141</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>97963</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H23" s="7">
-        <v>148</v>
-      </c>
-      <c r="I23" s="7">
-        <v>102852</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>289</v>
@@ -4267,13 +4297,13 @@
         <v>200815</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,34 +4312,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" s="7">
         <v>20</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>13398</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H24" s="7">
-        <v>30</v>
-      </c>
-      <c r="I24" s="7">
-        <v>21521</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -4318,10 +4348,10 @@
         <v>34919</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>298</v>
@@ -4333,34 +4363,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3139</v>
+        <v>1975</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>1975</v>
+        <v>3139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4369,49 +4399,49 @@
         <v>5114</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4395</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2842</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4395</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -4420,13 +4450,13 @@
         <v>7237</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,25 +4465,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>443</v>
+      </c>
+      <c r="D27" s="7">
+        <v>311518</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>325454</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
-        <v>443</v>
-      </c>
-      <c r="I27" s="7">
-        <v>311518</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>49</v>
@@ -4482,7 +4512,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E312024A-A7A3-4E25-908A-DC10BA921A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36609B11-E0F2-4B75-95F7-94B7AE09BA34}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4518,7 +4548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4619,34 +4649,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13527</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="7">
         <v>24</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>17737</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13527</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -4655,13 +4685,13 @@
         <v>31265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,34 +4700,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14103</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="7">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>11889</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14103</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4706,13 +4736,13 @@
         <v>25992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,34 +4751,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1382</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>6285</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1382</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -4757,13 +4787,13 @@
         <v>7667</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,34 +4802,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>662</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>662</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4808,49 +4838,49 @@
         <v>662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>727</v>
+        <v>931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>931</v>
+        <v>727</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4859,13 +4889,13 @@
         <v>1658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,25 +4904,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>49</v>
@@ -4927,34 +4957,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>195</v>
+      </c>
+      <c r="D10" s="7">
+        <v>136849</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="7">
         <v>189</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>138983</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H10" s="7">
-        <v>195</v>
-      </c>
-      <c r="I10" s="7">
-        <v>136849</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>384</v>
@@ -4963,13 +4993,13 @@
         <v>275832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,34 +5008,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>126</v>
+      </c>
+      <c r="D11" s="7">
+        <v>87848</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="7">
         <v>110</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>80029</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H11" s="7">
-        <v>126</v>
-      </c>
-      <c r="I11" s="7">
-        <v>87848</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -5014,13 +5044,13 @@
         <v>167878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,34 +5059,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14785</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H12" s="7">
         <v>20</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14190</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H12" s="7">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14785</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>368</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -5065,13 +5095,13 @@
         <v>28975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,34 +5110,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2003</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3234</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2003</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5116,49 +5146,49 @@
         <v>5237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>337</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1808</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1808</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5167,13 +5197,13 @@
         <v>1808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,25 +5212,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>348</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243293</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7">
         <v>323</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236437</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="7">
-        <v>348</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243293</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>49</v>
@@ -5229,40 +5259,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7">
+        <v>42897</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" s="7">
         <v>71</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>51509</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H16" s="7">
-        <v>59</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42897</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -5271,13 +5301,13 @@
         <v>94406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,34 +5316,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20649</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="7">
         <v>32</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22740</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H17" s="7">
-        <v>30</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20649</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -5322,13 +5352,13 @@
         <v>43389</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,34 +5367,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5523</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>636</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5523</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5373,13 +5403,13 @@
         <v>6158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,34 +5418,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>875</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>875</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5424,49 +5454,49 @@
         <v>875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>583</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>583</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5475,13 +5505,13 @@
         <v>583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,25 +5520,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7">
+        <v>70526</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="7">
         <v>104</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>74885</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="7">
-        <v>99</v>
-      </c>
-      <c r="I21" s="7">
-        <v>70526</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>49</v>
@@ -5543,34 +5573,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>274</v>
+      </c>
+      <c r="D22" s="7">
+        <v>193274</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" s="7">
         <v>284</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>208229</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H22" s="7">
-        <v>274</v>
-      </c>
-      <c r="I22" s="7">
-        <v>193273</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>558</v>
@@ -5579,13 +5609,13 @@
         <v>401503</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,34 +5624,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>176</v>
+      </c>
+      <c r="D23" s="7">
+        <v>122600</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="7">
         <v>159</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>114659</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H23" s="7">
-        <v>176</v>
-      </c>
-      <c r="I23" s="7">
-        <v>122599</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -5630,13 +5660,13 @@
         <v>237258</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,34 +5675,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21689</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H24" s="7">
         <v>30</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>21111</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H24" s="7">
-        <v>31</v>
-      </c>
-      <c r="I24" s="7">
-        <v>21689</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -5681,13 +5711,13 @@
         <v>42801</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>271</v>
+        <v>439</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>440</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,34 +5726,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3540</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3234</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3540</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5732,49 +5762,49 @@
         <v>6774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3322</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>727</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3322</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5783,13 +5813,13 @@
         <v>4048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>309</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,25 +5828,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>491</v>
+      </c>
+      <c r="D27" s="7">
+        <v>344425</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>347960</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
-        <v>491</v>
-      </c>
-      <c r="I27" s="7">
-        <v>344424</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>49</v>
@@ -5845,7 +5875,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
